--- a/inst/apps/NM_BCGCalc/external/RMD/files/OutputFileSubtabs.xlsx
+++ b/inst/apps/NM_BCGCalc/external/RMD/files/OutputFileSubtabs.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\shiny-examples\BCGcalc\external\RMD\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/NM_BCGCalc/inst/apps/NM_BCGCalc/external/RMD/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02EDE16E-FFB3-4F27-ACD6-87636A480B4F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="838" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="8" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="7" r:id="rId1"/>
     <sheet name="FileBuild_TTAA" sheetId="1" r:id="rId2"/>
-    <sheet name="FileBuild_IndexClassParam" sheetId="9" r:id="rId3"/>
-    <sheet name="FB_IndexClassParam_Cols" sheetId="10" r:id="rId4"/>
-    <sheet name="FileBuild_IndexNameClass" sheetId="4" r:id="rId5"/>
-    <sheet name="FileBuild_Merge" sheetId="3" r:id="rId6"/>
-    <sheet name="Calc_BCG" sheetId="5" r:id="rId7"/>
-    <sheet name="Calc_ThermPref" sheetId="6" r:id="rId8"/>
-    <sheet name="Calc_ModTherm" sheetId="8" r:id="rId9"/>
-    <sheet name="Calc_MTTI" sheetId="11" r:id="rId10"/>
-    <sheet name="Calc_BDI" sheetId="12" r:id="rId11"/>
+    <sheet name="FileBuild_OutsideBugs" sheetId="13" r:id="rId3"/>
+    <sheet name="FileBuild_OutsideFish" sheetId="14" r:id="rId4"/>
+    <sheet name="FileBuild_IndexClassParam" sheetId="9" r:id="rId5"/>
+    <sheet name="FB_IndexClassParam_Cols" sheetId="10" r:id="rId6"/>
+    <sheet name="FileBuild_IndexNameClass" sheetId="4" r:id="rId7"/>
+    <sheet name="FileBuild_Merge" sheetId="3" r:id="rId8"/>
+    <sheet name="Calc_BCG" sheetId="5" r:id="rId9"/>
+    <sheet name="Calc_ThermPref" sheetId="6" r:id="rId10"/>
+    <sheet name="Calc_ModTherm" sheetId="8" r:id="rId11"/>
+    <sheet name="Calc_MTTI" sheetId="11" r:id="rId12"/>
+    <sheet name="Calc_BDI" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="161">
   <si>
     <t>Description</t>
   </si>
@@ -81,9 +83,6 @@
     <t>original input file</t>
   </si>
   <si>
-    <t>Final output, with 'translated' TaxonID, NonTarget designations, attributes and phylogeny; the file is almost ready to be run through the BCG calculator (just needs Index_Name and Index_Class; see Assign Index Name and Class function)</t>
-  </si>
-  <si>
     <t>xxx_indexclass_0criteria</t>
   </si>
   <si>
@@ -138,15 +137,6 @@
     <t>Provides documentation of the Operational Taxonomic Unit (OTU) and source files that were used</t>
   </si>
   <si>
-    <t>Regional attribute table (same as the 'ORWA_Attributes_20230112' csv that can be downloaded from the GitHub link on the webpage)</t>
-  </si>
-  <si>
-    <t>Metadata for the regional attribute table (same as the 'ORWA_Attributes_Metadata_20230110' that can be downloaded from the GitHub link on the webpage)</t>
-  </si>
-  <si>
-    <t>Regional taxa translator table (same as the 'ORWA_TaxaTranslator_20230112' table that can be downloaded from the GitHub link on the webpage)</t>
-  </si>
-  <si>
     <t>Lists the taxa that occur in the input file, plus: 1) original TaxonID; 2) 'translated' TaxonID (OTU that will be used for the calculation); 3) whether the original TaxonID occurs in the regional taxa translator table (TRUE/FALSE); 4) whether the original TaxonID was changed during the 'translation' process (YES/NO); 5) total count in the input file (# individuals summed across samples)</t>
   </si>
   <si>
@@ -168,15 +158,9 @@
     <t>values for all bug metrics in the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
   </si>
   <si>
-    <t>values for bug metrics used in the MaritimeNW BCG (model + flags); the calculations are done with the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
-  </si>
-  <si>
     <t>values for bug metrics used in the MaritimeNW BCG model; each metric is assigned to  assigned metric membership values (0-1)</t>
   </si>
   <si>
-    <t>Rules for each BCG gradient/elevation class x BCG level (metrics, thresholds, symbols). Rules are similar but not exactly the same. long data format</t>
-  </si>
-  <si>
     <t>for each sample, membership in each BCG level (0-1). Includes Index_Name and Index_Class</t>
   </si>
   <si>
@@ -385,13 +369,187 @@
   </si>
   <si>
     <t>Update BDI</t>
+  </si>
+  <si>
+    <t>Regional attribute table</t>
+  </si>
+  <si>
+    <t>Metadata for the regional attribute table</t>
+  </si>
+  <si>
+    <t>Regional taxa translator table</t>
+  </si>
+  <si>
+    <t>Final output, with 'translated' TaxonID, NonTarget designations, attributes and phylogeny; the file is ready to be run through the BCG calculator</t>
+  </si>
+  <si>
+    <r>
+      <t>Column Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Domain (allowable entries)</t>
+  </si>
+  <si>
+    <t>Null Allowed</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>SAMPLEID</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Unique sample identifier (typically comprised of the site name, sample date, and replicate number).</t>
+  </si>
+  <si>
+    <t>TaxaID</t>
+  </si>
+  <si>
+    <t>N_Taxa</t>
+  </si>
+  <si>
+    <t>FFG</t>
+  </si>
+  <si>
+    <t>Habit</t>
+  </si>
+  <si>
+    <t>BCG_ATTR</t>
+  </si>
+  <si>
+    <t>TolVal</t>
+  </si>
+  <si>
+    <t>Phylum</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Taxonomic identification of organisms in each sample.</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>non-negative real number</t>
+  </si>
+  <si>
+    <t>Number of individuals (not number of taxa).</t>
+  </si>
+  <si>
+    <t>NONTARGET</t>
+  </si>
+  <si>
+    <t>TRUE, FALSE</t>
+  </si>
+  <si>
+    <t>Non-target taxa should be marked “TRUE”.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>number ranging from 0-10</t>
+  </si>
+  <si>
+    <t>Taxa with tolerance values ranging from 0 to 3 are considered ‘intolerant’ to anthropogenic disturbance and are included in the ‘intolerant’ metric calculations. Those with values ranging from 7 to 10 are included in the ‘tolerant’ metrics.</t>
+  </si>
+  <si>
+    <t>Entries should be consistent with the phylogeny.</t>
+  </si>
+  <si>
+    <t>CG, CF, PR, SC, SH, PH;PR</t>
+  </si>
+  <si>
+    <t>Habit types: Burrowers (BU), Climbers (CB), Clingers (CN), Skaters (SK), Sprawlers (SP), and Swimmers (SW). Multiple entries are allowed and should be separated with a SEMICOLON rather than a comma or space.</t>
+  </si>
+  <si>
+    <t>BU, CB, CN, SK, SP, SW</t>
+  </si>
+  <si>
+    <t>Primary Functional Feeding Group: Collector-Gatherer (CG), Collector-Filterer (CF), Piercer-Predator (PH;PR), Predator (PR), Scraper (SC), or Shredder (SH). Multiple entries are allowed and should be separated with a SEMICOLON rather than a comma or space.</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6</t>
+  </si>
+  <si>
+    <t>Reproduction</t>
+  </si>
+  <si>
+    <t>Trophic</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>BCG Attribute assigned to each taxon. A single taxon can only have one entry.</t>
+  </si>
+  <si>
+    <t>Broadcaster</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 6s, 6t, 10</t>
+  </si>
+  <si>
+    <t>HB, IV, OM, PI, PL</t>
+  </si>
+  <si>
+    <t>Label all pelagic broadcast spawning fish as "Broadcaster" in this field. No other reproduction type is used in this BCG.</t>
+  </si>
+  <si>
+    <t>Trophic type: Herbivore (HB), Insectivore (IV), Omnivore (OM), piscivore (PI), planktivore (PL). A single taxon can only have one entry.</t>
+  </si>
+  <si>
+    <t>LLNLB</t>
+  </si>
+  <si>
+    <t>Label all Long Lived, Native Large Bodied fish as "LLNLB" in this field.</t>
+  </si>
+  <si>
+    <t>values for all bug/fish metrics in the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
+  </si>
+  <si>
+    <t>values for bug/fish metrics used in the NM BCG models; the calculations are done with the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
+  </si>
+  <si>
+    <t>values for bug/fish metrics used in the NM BCG models; each metric is assigned to  assigned metric membership values (0-1)</t>
+  </si>
+  <si>
+    <t>rules for each BCG level (metrics, thresholds, symbols).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +569,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -443,7 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -466,10 +631,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -790,7 +951,7 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -801,7 +962,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -811,12 +972,12 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -824,7 +985,7 @@
         <v>44963</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -832,7 +993,7 @@
         <v>45078</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -840,7 +1001,7 @@
         <v>45083</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -848,7 +1009,7 @@
         <v>45155</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -860,6 +1021,192 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC02891-55F0-4D4F-8AD2-82CDF128973D}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8226433C-489A-4F3D-AEB5-F41FA1B97ACA}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="136.5703125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCBBF59-2913-4C4D-BF48-C5D0EB7A6892}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -890,43 +1237,43 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>102</v>
+      <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>97</v>
+      <c r="B6" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +1281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90638112-B066-41D7-9E92-7D5E21BB891E}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -966,18 +1313,18 @@
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>101</v>
+      <c r="A4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +1337,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B11" sqref="B11:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1360,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1021,39 +1368,39 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1061,15 +1408,15 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1078,6 +1425,407 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A23830-B5FB-49D3-AF84-8DE9239FC2FB}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.28515625" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5AE3AB-44D5-4B65-90D2-0BC6561C5612}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.28515625" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9087282C-EEAC-47C0-A95E-57ECCF66652A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1105,15 +1853,15 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +1869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCDC5CA-D016-4BEF-A738-D76EAE004D04}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -1137,7 +1885,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1145,90 +1893,90 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F2490-5015-4870-822C-849AAF4ACE02}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1264,23 +2012,23 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +2036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283C6984-BF98-4F5A-9A86-F6DED122E046}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1316,7 +2064,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1324,15 +2072,15 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1340,12 +2088,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E560A9A-B97C-4C71-B80B-6BD79D2219D9}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,276 +2120,90 @@
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC02891-55F0-4D4F-8AD2-82CDF128973D}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8226433C-489A-4F3D-AEB5-F41FA1B97ACA}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="136.5703125" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">

--- a/inst/apps/NM_BCGCalc/external/RMD/files/OutputFileSubtabs.xlsx
+++ b/inst/apps/NM_BCGCalc/external/RMD/files/OutputFileSubtabs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/NM_BCGCalc/inst/apps/NM_BCGCalc/external/RMD/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02EDE16E-FFB3-4F27-ACD6-87636A480B4F}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A386CE70-F65A-41B3-8999-6DEBB9FED8A1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="8" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="8" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="7" r:id="rId1"/>
@@ -48,32 +48,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="181">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>xxx_taxatrans_0fileversions</t>
-  </si>
-  <si>
-    <t>xxx_taxatrans_1attributes</t>
-  </si>
-  <si>
-    <t>xxx_taxatrans_1metadata</t>
-  </si>
-  <si>
-    <t>xxx_taxatrans_1official</t>
-  </si>
-  <si>
-    <t>xxx_taxatrans_2taxamatch</t>
-  </si>
-  <si>
-    <t>xxx_taxatrans_3nonmatch</t>
-  </si>
-  <si>
-    <t>xxx_taxatrans_MERGED</t>
-  </si>
-  <si>
     <t>xxx</t>
   </si>
   <si>
@@ -98,33 +77,6 @@
     <t>ThermPrefMetrics_metadata</t>
   </si>
   <si>
-    <t>xxx_bcgcalc_1markexcl</t>
-  </si>
-  <si>
-    <t>xxx_bcgcalc_2metval_all</t>
-  </si>
-  <si>
-    <t>xxx_bcgcalc_2metval_BCG</t>
-  </si>
-  <si>
-    <t>xxx_bcgcalc_3metmemb</t>
-  </si>
-  <si>
-    <t>xxx_bcgcalc_3metrules</t>
-  </si>
-  <si>
-    <t>xxx_bcgcalc_4levmemb</t>
-  </si>
-  <si>
-    <t>xxx_bcgcalc_5levassign</t>
-  </si>
-  <si>
-    <t>xxx_bcgcalc_6levflags</t>
-  </si>
-  <si>
-    <t>xxx_bcgcalc_6metflags</t>
-  </si>
-  <si>
     <t>xxx_met_therm_1markexcl</t>
   </si>
   <si>
@@ -164,21 +116,12 @@
     <t>for each sample, membership in each BCG level (0-1). Includes Index_Name and Index_Class</t>
   </si>
   <si>
-    <t>results without the flags (primary, secondary BCG levels and membership, continuous BCG score, narrative with and without pluses and minuses)</t>
-  </si>
-  <si>
     <t>summary of how many samples had flagged metrics (and not flagged) based on the input file; count of # flagged (flag) and not flagged (NA)</t>
   </si>
   <si>
     <t>results of flag calculations for all metrics and samples</t>
   </si>
   <si>
-    <t>histogram showing distribution of samples across BCG levels.</t>
-  </si>
-  <si>
-    <t>for each sample, BCG model output (primary, secondary BCG levels and membership, continuous BCG score, narrative with and without pluses and minuses) plus flags (flag or NA)</t>
-  </si>
-  <si>
     <t>values for all thermal and hydrologic indicator metrics; calculated with the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
   </si>
   <si>
@@ -359,19 +302,10 @@
     <t>xxx_modtherm_RESULTS.html</t>
   </si>
   <si>
-    <t>xxx_bcgcalc_RESULTS.csv</t>
-  </si>
-  <si>
-    <t>xxx_bcgcalc_RESULTS.html</t>
-  </si>
-  <si>
     <t>xxx_BDI_1markexcl</t>
   </si>
   <si>
     <t>Update BDI</t>
-  </si>
-  <si>
-    <t>Regional attribute table</t>
   </si>
   <si>
     <t>Metadata for the regional attribute table</t>
@@ -425,33 +359,12 @@
     <t>Unique sample identifier (typically comprised of the site name, sample date, and replicate number).</t>
   </si>
   <si>
-    <t>TaxaID</t>
-  </si>
-  <si>
-    <t>N_Taxa</t>
-  </si>
-  <si>
     <t>FFG</t>
   </si>
   <si>
-    <t>Habit</t>
-  </si>
-  <si>
     <t>BCG_ATTR</t>
   </si>
   <si>
-    <t>TolVal</t>
-  </si>
-  <si>
-    <t>Phylum</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
     <t>Taxonomic identification of organisms in each sample.</t>
   </si>
   <si>
@@ -500,15 +413,6 @@
     <t>1, 2, 3, 4, 5, 6</t>
   </si>
   <si>
-    <t>Reproduction</t>
-  </si>
-  <si>
-    <t>Trophic</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>BCG Attribute assigned to each taxon. A single taxon can only have one entry.</t>
   </si>
   <si>
@@ -533,16 +437,172 @@
     <t>Label all Long Lived, Native Large Bodied fish as "LLNLB" in this field.</t>
   </si>
   <si>
-    <t>values for all bug/fish metrics in the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
-  </si>
-  <si>
-    <t>values for bug/fish metrics used in the NM BCG models; the calculations are done with the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
-  </si>
-  <si>
-    <t>values for bug/fish metrics used in the NM BCG models; each metric is assigned to  assigned metric membership values (0-1)</t>
-  </si>
-  <si>
-    <t>rules for each BCG level (metrics, thresholds, symbols).</t>
+    <t>TAXAID</t>
+  </si>
+  <si>
+    <t>N_TAXA</t>
+  </si>
+  <si>
+    <t>HABIT</t>
+  </si>
+  <si>
+    <t>TOLVAL</t>
+  </si>
+  <si>
+    <t>PHYLUM</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>FAMILY</t>
+  </si>
+  <si>
+    <t>REPRODUCTION</t>
+  </si>
+  <si>
+    <t>TROPHIC</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>Taxonomic identification of organisms in each sample. Note, use scientific name here (e.g., Lepomis macrochirus) rather than common name.</t>
+  </si>
+  <si>
+    <t>Subfolder</t>
+  </si>
+  <si>
+    <t>_user_input</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>Metadata for the regional taxa translator table</t>
+  </si>
+  <si>
+    <t>BCG_TaxaTranslator_modify</t>
+  </si>
+  <si>
+    <t>BCG_TaxaTranslator_source</t>
+  </si>
+  <si>
+    <t>BCG_TaxaTranslator_TAXAATTR</t>
+  </si>
+  <si>
+    <t>BCG_TaxaTranslator_nonmatch</t>
+  </si>
+  <si>
+    <t>NM_BCG_xxxx_Attributes_yyyymmdd</t>
+  </si>
+  <si>
+    <t>NM_BCG_xxxx_Attributes_Metadata_yyyymmdd</t>
+  </si>
+  <si>
+    <t>NM_BCG_xxxx_Taxa_Translator_yyyymmdd</t>
+  </si>
+  <si>
+    <t>NM_BCG_xxxx_Taxa_Translator_Metadata_yyyymmdd</t>
+  </si>
+  <si>
+    <t>results_xxxx_BCG</t>
+  </si>
+  <si>
+    <t>Original file name</t>
+  </si>
+  <si>
+    <t>Regional attribute table.</t>
+  </si>
+  <si>
+    <t>Metric flags associated with any metrics in the BCG.</t>
+  </si>
+  <si>
+    <t>Metrics calculated by the BioMonTools R package, their description, and input fields.</t>
+  </si>
+  <si>
+    <t>Metric scoring table used by the BioMonTools R package.</t>
+  </si>
+  <si>
+    <t>Rules table used by the BCGCalc R package to assign metric and level memberships.</t>
+  </si>
+  <si>
+    <t>For each sample, BCG model output (primary, secondary BCG levels and membership, continuous BCG score, narrative with and without pluses and minuses) plus flags (flag or NA)</t>
+  </si>
+  <si>
+    <t>Histogram showing distribution of samples across BCG levels.</t>
+  </si>
+  <si>
+    <t>Original input file with an 'EXCLUDE' taxa column added in. It is a TRUE/FALSE field in which R marks redundant taxa as ‘TRUE’ based on the phylogeny fields in the input file. All 'Exclude’ decisions are sample-specific. A detailed description of the process that the R tool uses for marking redundant taxa is available upon request (Jen.Stamp@tetratech.com)</t>
+  </si>
+  <si>
+    <t>Values for all bug/fish metrics in the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
+  </si>
+  <si>
+    <t>Values for bug/fish metrics used in the NM BCG models; the calculations are done with the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
+  </si>
+  <si>
+    <t>Values for bug/fish metrics used in the NM BCG models; each metric is assigned to  assigned metric membership values (0-1)</t>
+  </si>
+  <si>
+    <t>Rules for each BCG level (metrics, thresholds, symbols).</t>
+  </si>
+  <si>
+    <t>For each sample, membership in each BCG level (0-1). Includes Index_Name and Index_Class</t>
+  </si>
+  <si>
+    <t>Results without the flags (primary, secondary BCG levels and membership, continuous BCG score, narrative with and without pluses and minuses)</t>
+  </si>
+  <si>
+    <t>Summary of how many samples had flagged metrics (and not flagged) based on the input file; count of # flagged (flag) and not flagged (NA)</t>
+  </si>
+  <si>
+    <t>Results of flag calculations for all metrics and samples</t>
+  </si>
+  <si>
+    <t>_BCG_RESULTS</t>
+  </si>
+  <si>
+    <t>_BCG_RESULTS.html</t>
+  </si>
+  <si>
+    <t>MetricFlags.xlsx</t>
+  </si>
+  <si>
+    <t>MetricNames.xlsx</t>
+  </si>
+  <si>
+    <t>MetricScoring.xlsx</t>
+  </si>
+  <si>
+    <t>Rules.xlsx</t>
+  </si>
+  <si>
+    <t>BCG_1markexcl</t>
+  </si>
+  <si>
+    <t>BCG_2metval_all</t>
+  </si>
+  <si>
+    <t>BCG_2metval_BCG</t>
+  </si>
+  <si>
+    <t>BCG_3metmemb</t>
+  </si>
+  <si>
+    <t>BCG_3metrules</t>
+  </si>
+  <si>
+    <t>BCG_4levmemb</t>
+  </si>
+  <si>
+    <t>BCG_5levassign</t>
+  </si>
+  <si>
+    <t>BCG_6levflags</t>
+  </si>
+  <si>
+    <t>BCG_6metflags</t>
   </si>
 </sst>
 </file>
@@ -608,7 +668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -619,9 +679,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -631,6 +688,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -961,55 +1024,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>45</v>
+      <c r="A1" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>44963</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>47</v>
+      <c r="A4" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>44963</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>45078</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>45083</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>45155</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1036,7 +1099,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1044,34 +1107,34 @@
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1090,111 +1153,111 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="136.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="136.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1222,7 +1285,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1230,50 +1293,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1297,7 +1360,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1305,26 +1368,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1334,89 +1397,128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008E5B7-331F-433A-9A7C-4AD246BB0834}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B13"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" style="1" customWidth="1"/>
-    <col min="2" max="2" width="79.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="50" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>110</v>
+        <v>141</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1429,220 +1531,220 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.28515625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>115</v>
+        <v>92</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>120</v>
+        <v>97</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>133</v>
+        <v>97</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>136</v>
+        <v>97</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>144</v>
+        <v>108</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>142</v>
+        <v>108</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="C8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>139</v>
+        <v>108</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>140</v>
+        <v>108</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>140</v>
+        <v>108</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>140</v>
+        <v>108</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1654,170 +1756,170 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5AE3AB-44D5-4B65-90D2-0BC6561C5612}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.28515625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>115</v>
+        <v>92</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>136</v>
+        <v>97</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>140</v>
+        <v>108</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="C6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>153</v>
+        <v>108</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>154</v>
+        <v>108</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>156</v>
+        <v>108</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1842,7 +1944,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1850,18 +1952,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1885,7 +1987,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1893,90 +1995,90 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2001,7 +2103,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2009,26 +2111,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2061,26 +2163,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2090,125 +2192,210 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E560A9A-B97C-4C71-B80B-6BD79D2219D9}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="136.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="136.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/apps/NM_BCGCalc/external/RMD/files/OutputFileSubtabs.xlsx
+++ b/inst/apps/NM_BCGCalc/external/RMD/files/OutputFileSubtabs.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/ben_block_tetratech_com/Documents/GitHub/NM_BCGCalc/inst/apps/NM_BCGCalc/external/RMD/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="267" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A386CE70-F65A-41B3-8999-6DEBB9FED8A1}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3A28E9D-B83C-4486-AB5E-09E482F10817}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="8" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="3" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
   </bookViews>
   <sheets>
-    <sheet name="notes" sheetId="7" r:id="rId1"/>
-    <sheet name="FileBuild_TTAA" sheetId="1" r:id="rId2"/>
-    <sheet name="FileBuild_OutsideBugs" sheetId="13" r:id="rId3"/>
-    <sheet name="FileBuild_OutsideFish" sheetId="14" r:id="rId4"/>
-    <sheet name="FileBuild_IndexClassParam" sheetId="9" r:id="rId5"/>
-    <sheet name="FB_IndexClassParam_Cols" sheetId="10" r:id="rId6"/>
-    <sheet name="FileBuild_IndexNameClass" sheetId="4" r:id="rId7"/>
-    <sheet name="FileBuild_Merge" sheetId="3" r:id="rId8"/>
-    <sheet name="Calc_BCG" sheetId="5" r:id="rId9"/>
-    <sheet name="Calc_ThermPref" sheetId="6" r:id="rId10"/>
-    <sheet name="Calc_ModTherm" sheetId="8" r:id="rId11"/>
-    <sheet name="Calc_MTTI" sheetId="11" r:id="rId12"/>
-    <sheet name="Calc_BDI" sheetId="12" r:id="rId13"/>
+    <sheet name="FileBuild_TTAA" sheetId="1" r:id="rId1"/>
+    <sheet name="FileBuild_OutsideBugs" sheetId="13" r:id="rId2"/>
+    <sheet name="FileBuild_OutsideFish" sheetId="14" r:id="rId3"/>
+    <sheet name="Calc_BCG" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,41 +39,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="102">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>xxx</t>
-  </si>
-  <si>
     <t>Output file</t>
   </si>
   <si>
     <t>original input file</t>
   </si>
   <si>
-    <t>xxx_indexclass_0criteria</t>
-  </si>
-  <si>
-    <t>Original input file with Index_Name and Index_Class fields added in; this file can be merged with the final output file from the 'Taxa Translator and Add Attribute' function via the 'Merge Files' function. The file will then be ready to run through the BCG calculator</t>
-  </si>
-  <si>
-    <t>Combined file. All rows and columns in File 1 (Primary) are carried through into the output file. For File 2, only data for rows that match with File 1 via the common identifier are carried through.</t>
-  </si>
-  <si>
-    <t>xxx_MergeFiles_RESULTS</t>
-  </si>
-  <si>
-    <t>ThermPrefMetrics_metadata</t>
-  </si>
-  <si>
-    <t>xxx_met_therm_1markexcl</t>
-  </si>
-  <si>
-    <t>xxx_met_therm_RESULTS</t>
-  </si>
-  <si>
     <t>Original input file</t>
   </si>
   <si>
@@ -93,219 +60,6 @@
   </si>
   <si>
     <t>Lists taxa in the input file that don't occur in the regional taxa translator table (if the file is blank, all are 'matches')</t>
-  </si>
-  <si>
-    <t>Criteria that were used for the Index Class assignment</t>
-  </si>
-  <si>
-    <t>Input file 1</t>
-  </si>
-  <si>
-    <t>Input file 2</t>
-  </si>
-  <si>
-    <t>original input file with an 'EXCLUDE' taxa column added in. It is a TRUE/FALSE field in which R marks redundant taxa as ‘TRUE’ based on the phylogeny fields in the input file. All 'Exclude’ decisions are sample-specific. A detailed description of the process that the R tool uses for marking redundant taxa is available upon request (Jen.Stamp@tetratech.com)</t>
-  </si>
-  <si>
-    <t>values for all bug metrics in the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
-  </si>
-  <si>
-    <t>values for bug metrics used in the MaritimeNW BCG model; each metric is assigned to  assigned metric membership values (0-1)</t>
-  </si>
-  <si>
-    <t>for each sample, membership in each BCG level (0-1). Includes Index_Name and Index_Class</t>
-  </si>
-  <si>
-    <t>summary of how many samples had flagged metrics (and not flagged) based on the input file; count of # flagged (flag) and not flagged (NA)</t>
-  </si>
-  <si>
-    <t>results of flag calculations for all metrics and samples</t>
-  </si>
-  <si>
-    <t>values for all thermal and hydrologic indicator metrics; calculated with the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
-  </si>
-  <si>
-    <t>metadata for the the '_met_therm_RESULTS' file</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Used by RMD to build tables for "output" tabs in Shiny.</t>
-  </si>
-  <si>
-    <t>Jen.Stamp@tetratech.com</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_1markexcl</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_2metval_all</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_2metval_BCG</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_3metmemb</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_3metrules</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_4levmemb</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_5levassign</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_6levflags</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_6metflags</t>
-  </si>
-  <si>
-    <t>values for bug metrics used in the Thermal Model (model + flags); the calculations are done with the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
-  </si>
-  <si>
-    <t>histogram showing distribution of samples across Thermal Model levels.</t>
-  </si>
-  <si>
-    <t>for each sample, thermal model output (primary, secondary levels and membership, continuous model score, narrative with and without pluses and minuses) plus flags (flag or NA)</t>
-  </si>
-  <si>
-    <t>results without the flags (primary, secondary levels and membership, continuous score, narrative with and without pluses and minuses)</t>
-  </si>
-  <si>
-    <t>Rules for each class x BCG level (metrics, thresholds, symbols). Rules are similar but not exactly the same. long data format</t>
-  </si>
-  <si>
-    <t>Original version</t>
-  </si>
-  <si>
-    <t>Added IndexClassParam</t>
-  </si>
-  <si>
-    <t>Original input file with additional fields appended.  This file will be ready to run the Assign Index Class function in the File Builder section of the BCGcalc Shiny app.</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>EPSG_CALC</t>
-  </si>
-  <si>
-    <t>WSAREASQKM</t>
-  </si>
-  <si>
-    <t>elev_m</t>
-  </si>
-  <si>
-    <t>pslope_nhd</t>
-  </si>
-  <si>
-    <t>slopelenkm</t>
-  </si>
-  <si>
-    <t>gnis_name</t>
-  </si>
-  <si>
-    <t>streamorde</t>
-  </si>
-  <si>
-    <t>ftype</t>
-  </si>
-  <si>
-    <t>fcode</t>
-  </si>
-  <si>
-    <t>&lt;existing columns&gt;</t>
-  </si>
-  <si>
-    <t>EPSG value used to generate COMID</t>
-  </si>
-  <si>
-    <t>COMID</t>
-  </si>
-  <si>
-    <t>% NHDPlusV2 flowline slope (slope*100)</t>
-  </si>
-  <si>
-    <t>length of NHDPlusV2 flowline (which the slope is based on)</t>
-  </si>
-  <si>
-    <t>waterbody name based on NHDPlusV2</t>
-  </si>
-  <si>
-    <t>Strahler stream order. Source: NHD+ VAA file</t>
-  </si>
-  <si>
-    <t>Flowline type based on NHDPlusV2 (e.g., stream/river, artificial path, connector/ditch)</t>
-  </si>
-  <si>
-    <t>Flowline code based on NHDPlusV2</t>
-  </si>
-  <si>
-    <t>Mean elevation (meters) of local catchment area (km2) based on EPA StreamCat dataset (Hill et al. 2016) (not exact watershed delineation)</t>
-  </si>
-  <si>
-    <t>Total watershed area (km2) based on EPA StreamCat dataset (Hill et al. 2016) (not exact watershed delineation)</t>
-  </si>
-  <si>
-    <t>NHDplus COMID derived from StreamCat using latitude, longitude, and EPSG values provided by the user.</t>
-  </si>
-  <si>
-    <t>Columns from input data.  Latitude and Longitude fields will be moved to after COMID.</t>
-  </si>
-  <si>
-    <t>xxx_indexclassparam_RESULTS</t>
-  </si>
-  <si>
-    <t>xxx_indexclass_1results</t>
-  </si>
-  <si>
-    <t>Add Calc_MTTI</t>
-  </si>
-  <si>
-    <t>for each sample, MTTI model output plus flags (flag or NA)</t>
-  </si>
-  <si>
-    <t>xxx_MTTI_flags_1_metrics.csv</t>
-  </si>
-  <si>
-    <t>xxx_MTTI_flags_2_eval_long.csv</t>
-  </si>
-  <si>
-    <t>xxx_MTT_flags_3_eval_summary.csv</t>
-  </si>
-  <si>
-    <t>for each sample, BDI model output plus flags (flag or NA)</t>
-  </si>
-  <si>
-    <t>Metrics needed for flags.  Including min and max MTTI values per sample taxa.</t>
-  </si>
-  <si>
-    <t>boxplot showing distribution of samples across MTTI values.</t>
-  </si>
-  <si>
-    <t>xxx_MTTI_RESULTS.html</t>
-  </si>
-  <si>
-    <t>xxx_MTTI_RESULTS.csv</t>
-  </si>
-  <si>
-    <t>xxx_BDI_RESULTS.csv</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_RESULTS.csv</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_RESULTS.html</t>
-  </si>
-  <si>
-    <t>xxx_BDI_1markexcl</t>
-  </si>
-  <si>
-    <t>Update BDI</t>
   </si>
   <si>
     <t>Metadata for the regional attribute table</t>
@@ -609,7 +363,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,14 +375,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -664,11 +410,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -685,18 +430,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1008,399 +746,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7863C4F-396E-40BF-96A9-69B357BBF05F}">
-  <sheetPr>
-    <tabColor theme="0" tint="-0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>44963</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>44963</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>45078</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>45083</v>
-      </c>
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{E37608BC-A119-4E3E-837F-24B39B5656AA}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC02891-55F0-4D4F-8AD2-82CDF128973D}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8226433C-489A-4F3D-AEB5-F41FA1B97ACA}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="136.5703125" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCBBF59-2913-4C4D-BF48-C5D0EB7A6892}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90638112-B066-41D7-9E92-7D5E21BB891E}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008E5B7-331F-433A-9A7C-4AD246BB0834}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,10 +763,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1424,101 +774,101 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>88</v>
+        <v>69</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1526,12 +876,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A23830-B5FB-49D3-AF84-8DE9239FC2FB}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,206 +895,206 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1752,7 +1102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5AE3AB-44D5-4B65-90D2-0BC6561C5612}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -1771,155 +1121,155 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1927,275 +1277,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9087282C-EEAC-47C0-A95E-57ECCF66652A}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="88.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCDC5CA-D016-4BEF-A738-D76EAE004D04}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="127" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F2490-5015-4870-822C-849AAF4ACE02}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="88.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283C6984-BF98-4F5A-9A86-F6DED122E046}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="67.85546875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E560A9A-B97C-4C71-B80B-6BD79D2219D9}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,189 +1294,189 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>149</v>
+      <c r="A2" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>168</v>
+      <c r="A3" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>169</v>
+      <c r="A4" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>170</v>
+      <c r="A5" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>171</v>
+      <c r="A6" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>166</v>
+      <c r="A7" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>167</v>
+      <c r="A8" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>172</v>
+      <c r="A9" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
